--- a/assets/modelos/modelo-importacao-operacao.xlsx
+++ b/assets/modelos/modelo-importacao-operacao.xlsx
@@ -46,7 +46,7 @@
     <t>Valor na moeda nacional</t>
   </si>
   <si>
-    <t>Status da Operação</t>
+    <t>STATUS</t>
   </si>
   <si>
     <t>F</t>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -121,10 +121,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -175,7 +171,9 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -184,7 +182,7 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -201,7 +199,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -439,7 +437,7 @@
     <col customWidth="1" min="12" max="12" width="17.57"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" ht="55.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +483,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="7">
-        <v>8.18840196E9</v>
+        <v>520195.0</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
@@ -511,7 +509,7 @@
       <c r="K2" s="11">
         <v>162.02402999999998</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -549,7 +547,7 @@
       <c r="K3" s="11">
         <v>108.880555</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -587,7 +585,7 @@
       <c r="K4" s="11">
         <v>585.5444699999999</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -625,7 +623,7 @@
       <c r="K5" s="11">
         <v>502.19312499999995</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -663,7 +661,7 @@
       <c r="K6" s="11">
         <v>473.76517999999993</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -701,7 +699,7 @@
       <c r="K7" s="11">
         <v>579.84871</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -739,7 +737,7 @@
       <c r="K8" s="11">
         <v>429.368765</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -777,7 +775,7 @@
       <c r="K9" s="11">
         <v>451.338125</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -815,7 +813,7 @@
       <c r="K10" s="11">
         <v>300.55305</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -853,7 +851,7 @@
       <c r="K11" s="11">
         <v>591.64707</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
